--- a/ResultadoEleicoesDistritos/COIMBRA_MIRANDA DO CORVO.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_MIRANDA DO CORVO.xlsx
@@ -597,64 +597,64 @@
         <v>3196</v>
       </c>
       <c r="H2" t="n">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="I2" t="n">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="J2" t="n">
-        <v>1274</v>
+        <v>1236</v>
       </c>
       <c r="K2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
       <c r="R2" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="T2" t="n">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="U2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
-        <v>2052</v>
+        <v>2041</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>2088</v>
+        <v>2074</v>
       </c>
       <c r="Y2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
